--- a/us_states_deaths_30_mar.xlsx
+++ b/us_states_deaths_30_mar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{30551D61-A44F-421F-A948-7790FAE30689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7597E3CF-81CD-400A-8A8B-7445CAC6E8D6}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{30551D61-A44F-421F-A948-7790FAE30689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C4CDB466-ACFA-4E2C-8050-46FDD32BA619}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{80FBD7E9-EB44-4BFE-BA86-BED4E27B6BB4}"/>
+    <workbookView xWindow="20220" yWindow="-19530" windowWidth="16065" windowHeight="16290" xr2:uid="{80FBD7E9-EB44-4BFE-BA86-BED4E27B6BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E481D962-2A75-4328-85D6-725B4D4993AE}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C2:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,7 +711,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -735,7 +735,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -748,7 +748,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -800,7 +800,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -813,7 +813,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -839,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -902,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -915,7 +915,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -928,7 +928,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -941,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -965,7 +965,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -978,7 +978,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -991,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1004,7 +1004,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1017,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1043,7 +1043,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1054,7 +1054,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1065,7 +1065,7 @@
         <v>49</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1078,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1091,7 +1091,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="2">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1117,7 +1117,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>1714</v>
+        <v>2219</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1143,7 +1143,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1167,7 +1167,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1180,7 +1180,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1193,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1206,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="2">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1219,7 +1219,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1230,7 +1230,7 @@
         <v>51</v>
       </c>
       <c r="C43" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1243,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1256,7 +1256,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1269,7 +1269,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1282,7 +1282,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1295,7 +1295,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1308,7 +1308,7 @@
         <v>21</v>
       </c>
       <c r="C49" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1321,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1345,7 +1345,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
